--- a/Assets/Documents/ToDo.xlsx
+++ b/Assets/Documents/ToDo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Jams\Tandemjam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Jams\TandemJam_1\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C3B140-0F53-4704-8216-0C512B491335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2ED3C-D907-499C-92E2-76FCC5591267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="680" windowWidth="34650" windowHeight="19450" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
+    <workbookView xWindow="5290" yWindow="460" windowWidth="31670" windowHeight="19610" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -239,6 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,49 +570,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -620,169 +620,169 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="J12" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="J13" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="6"/>
       <c r="J14" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1"/>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/Documents/ToDo.xlsx
+++ b/Assets/Documents/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Jams\TandemJam_1\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2ED3C-D907-499C-92E2-76FCC5591267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818A0FE-CA2E-4320-BF84-D8BE38D3ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5290" yWindow="460" windowWidth="31670" windowHeight="19610" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
+    <workbookView xWindow="8890" yWindow="460" windowWidth="28070" windowHeight="19610" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7477E8-F995-4053-918D-5B2C3C009D15}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8">
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G9">

--- a/Assets/Documents/ToDo.xlsx
+++ b/Assets/Documents/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Jams\TandemJam_1\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818A0FE-CA2E-4320-BF84-D8BE38D3ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DB38F-1229-4ADA-B5FE-30020CBC9BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8890" yWindow="460" windowWidth="28070" windowHeight="19610" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
+    <workbookView xWindow="57390" yWindow="100" windowWidth="19220" windowHeight="20470" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7477E8-F995-4053-918D-5B2C3C009D15}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="1"/>
@@ -645,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="1"/>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="1"/>
@@ -682,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="1"/>
@@ -696,13 +696,13 @@
         <v>30</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1"/>
@@ -723,7 +723,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1"/>
@@ -733,7 +733,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="4"/>

--- a/Assets/Documents/ToDo.xlsx
+++ b/Assets/Documents/ToDo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Jams\TandemJam_1\Assets\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\TandemJam_1\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DB38F-1229-4ADA-B5FE-30020CBC9BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A49CE62-A39E-4C79-A218-6AD59A983E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57390" yWindow="100" windowWidth="19220" windowHeight="20470" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
+    <workbookView xWindow="12840" yWindow="24" windowWidth="35760" windowHeight="16692" xr2:uid="{6B6AB769-3234-4F83-9EFC-3B8AA71D9C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -560,41 +560,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7477E8-F995-4053-918D-5B2C3C009D15}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="4.54296875" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -663,7 +663,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -673,8 +673,8 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
@@ -687,7 +687,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -701,7 +701,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
@@ -712,7 +712,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -722,7 +722,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
@@ -742,43 +742,43 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F24" s="4" t="s">
         <v>28</v>
       </c>
